--- a/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2018-19.xlsx
@@ -3249,32 +3249,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -3314,32 +3314,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -3379,32 +3379,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nikola Mirotic</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -3444,32 +3444,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Nikola Mirotic</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3489,17 +3489,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -3769,32 +3769,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -3834,32 +3834,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
@@ -4224,32 +4224,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -4289,32 +4289,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -4354,32 +4354,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -4419,32 +4419,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -6694,32 +6694,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Evan Fournier</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -6759,32 +6759,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Evan Fournier</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dragan Bender</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6844,12 +6844,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -6889,32 +6889,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Dragan Bender</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -7864,32 +7864,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rajon Rondo</t>
+          <t>Ante Zizic</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -7929,32 +7929,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ante Zizic</t>
+          <t>Rajon Rondo</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -8254,32 +8254,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dwight Howard</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -8319,32 +8319,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Dwight Howard</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -9684,32 +9684,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -9749,32 +9749,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -11179,32 +11179,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kent Bazemore</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -11244,32 +11244,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Kent Bazemore</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -11569,22 +11569,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -11634,22 +11634,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -11699,32 +11699,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -11764,32 +11764,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Jahlil Okafor</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -12359,22 +12359,22 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Jahlil Okafor</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -12424,22 +12424,22 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -14624,32 +14624,32 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>T.J. Warren</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -14669,17 +14669,17 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -14689,32 +14689,32 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>T.J. Warren</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -14734,17 +14734,17 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -16704,17 +16704,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Wilson Chandler</t>
+          <t>Dirk Nowitzki</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16749,17 +16749,17 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -16769,17 +16769,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Dirk Nowitzki</t>
+          <t>Wilson Chandler</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -16789,12 +16789,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16814,17 +16814,17 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -17874,32 +17874,32 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Marco Belinelli</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -17919,17 +17919,17 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -17939,32 +17939,32 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Marco Belinelli</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -17984,17 +17984,17 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -18134,32 +18134,32 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -18179,17 +18179,17 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -18199,32 +18199,32 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -18244,17 +18244,17 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -18264,32 +18264,32 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Johnathan Williams</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18309,17 +18309,17 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -18329,32 +18329,32 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Johnathan Williams</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -18849,32 +18849,32 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Isaiah Hicks</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -18884,7 +18884,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18894,17 +18894,17 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -18914,32 +18914,32 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Isaiah Hicks</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -18949,7 +18949,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -18959,17 +18959,17 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Trey Burke</t>
+          <t>Isaiah Canaan</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -19714,12 +19714,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -19739,17 +19739,17 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -19759,17 +19759,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Isaiah Canaan</t>
+          <t>Trey Burke</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -19779,12 +19779,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -19794,7 +19794,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19804,17 +19804,17 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -20214,32 +20214,32 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Langston Galloway</t>
+          <t>Luol Deng</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -20249,7 +20249,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20259,17 +20259,17 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -20279,32 +20279,32 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Luol Deng</t>
+          <t>Langston Galloway</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -20324,17 +20324,17 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -20734,32 +20734,32 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>JR Smith</t>
+          <t>Angel Delgado</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20779,17 +20779,17 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>-19.7</t>
         </is>
       </c>
     </row>
@@ -20799,32 +20799,32 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Angel Delgado</t>
+          <t>JR Smith</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -20844,17 +20844,17 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-19.7</t>
+          <t>10.4</t>
         </is>
       </c>
     </row>
@@ -22424,7 +22424,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Quincy Acy</t>
+          <t>Ray Spalding</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -22444,12 +22444,12 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -22469,17 +22469,17 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ray Spalding</t>
+          <t>Quincy Acy</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -22509,12 +22509,12 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -22524,7 +22524,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -22534,17 +22534,17 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -23139,17 +23139,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jordan McRae</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -23159,12 +23159,12 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -23184,17 +23184,17 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -23204,17 +23204,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Jordan McRae</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -23224,12 +23224,12 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -23249,17 +23249,17 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -24309,32 +24309,32 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Justin Patton</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -24354,17 +24354,17 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -24374,17 +24374,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Isaac Humphries</t>
+          <t>Justin Patton</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -24394,12 +24394,12 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -24419,17 +24419,17 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>23.9</t>
         </is>
       </c>
     </row>
@@ -24439,32 +24439,32 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Isaac Humphries</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -24474,7 +24474,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -24484,17 +24484,17 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -24894,12 +24894,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Billy Garrett</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -24909,17 +24909,17 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -24929,7 +24929,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -24939,17 +24939,17 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -24959,12 +24959,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Billy Garrett</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -24974,17 +24974,17 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -24994,7 +24994,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -25004,17 +25004,17 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>21.1</t>
         </is>
       </c>
     </row>
@@ -25479,32 +25479,32 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Chandler Parsons</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -25524,17 +25524,17 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -25544,32 +25544,32 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Chandler Parsons</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -25589,17 +25589,17 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -25609,17 +25609,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Tyler Dorsey</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -25629,12 +25629,12 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -25654,17 +25654,17 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -25674,17 +25674,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tyler Dorsey</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -25694,12 +25694,12 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -25709,7 +25709,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -25719,17 +25719,17 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -26649,32 +26649,32 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -26694,17 +26694,17 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -26714,32 +26714,32 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -26749,7 +26749,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -26759,17 +26759,17 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -26974,32 +26974,32 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -27009,7 +27009,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -27019,17 +27019,17 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -27039,17 +27039,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -27059,12 +27059,12 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -27084,17 +27084,17 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27104,32 +27104,32 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -27149,17 +27149,17 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -27234,17 +27234,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ron Baker</t>
+          <t>Isaiah Thomas</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -27254,12 +27254,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -27279,17 +27279,17 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -27364,32 +27364,32 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Dusty Hannahs</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -27409,17 +27409,17 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-16.8</t>
         </is>
       </c>
     </row>
@@ -27429,32 +27429,32 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Isaiah Thomas</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -27464,7 +27464,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -27474,7 +27474,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -27494,17 +27494,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Dusty Hannahs</t>
+          <t>Ron Baker</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -27514,12 +27514,12 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -27529,7 +27529,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -27539,17 +27539,17 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>-16.8</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -27884,32 +27884,32 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Glenn Robinson III</t>
+          <t>Caleb Swanigan</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -27929,17 +27929,17 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -27949,32 +27949,32 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Caleb Swanigan</t>
+          <t>Glenn Robinson III</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -27984,7 +27984,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -27994,17 +27994,17 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -30159,17 +30159,17 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>J.P. Macura</t>
+          <t>Jerome Robinson</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -30179,12 +30179,12 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -30194,7 +30194,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -30204,17 +30204,17 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -30224,17 +30224,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Jerome Robinson</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -30244,12 +30244,12 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -30269,17 +30269,17 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -30289,17 +30289,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>J.P. Macura</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -30334,17 +30334,17 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -31394,22 +31394,22 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Jared Terrell</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -31429,7 +31429,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -31439,17 +31439,17 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>-16.2</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -31459,22 +31459,22 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Jared Terrell</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -31494,7 +31494,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -31504,17 +31504,17 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>26.3</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-16.2</t>
         </is>
       </c>
     </row>
@@ -31914,12 +31914,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>George King</t>
+          <t>Naz Mitrou-Long</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -31929,17 +31929,17 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -31949,27 +31949,27 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="J486" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -31979,17 +31979,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Vincent Edwards</t>
+          <t>George King</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -32014,7 +32014,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -32024,17 +32024,17 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>-41.8</t>
+          <t>55.0</t>
         </is>
       </c>
     </row>
@@ -32044,17 +32044,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Naz Mitrou-Long</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -32064,12 +32064,12 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -32089,17 +32089,17 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -32109,22 +32109,22 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DJ Stephens</t>
+          <t>Vincent Edwards</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -32154,17 +32154,17 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>-41.8</t>
         </is>
       </c>
     </row>
@@ -32239,32 +32239,32 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>DJ Stephens</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -32284,17 +32284,17 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>23.9</t>
         </is>
       </c>
     </row>
@@ -32759,12 +32759,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Jaylen Morris</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -32779,12 +32779,12 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -32794,7 +32794,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -32804,17 +32804,17 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>-42.2</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -32824,12 +32824,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Jaylen Morris</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -32844,12 +32844,12 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -32859,7 +32859,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -32869,17 +32869,17 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-42.2</t>
         </is>
       </c>
     </row>
@@ -33149,17 +33149,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Trevon Duval</t>
+          <t>Scott Machado</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -33194,17 +33194,17 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -33214,32 +33214,32 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Jordan Loyd</t>
+          <t>Ike Anigbogu</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
@@ -33259,17 +33259,17 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>39.4</t>
         </is>
       </c>
     </row>
@@ -33279,17 +33279,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>James Nunnally</t>
+          <t>Tyler Lydon</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -33299,12 +33299,12 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -33314,7 +33314,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -33324,17 +33324,17 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -33344,12 +33344,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Donatas Motiejunas</t>
+          <t>James Nunnally</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -33359,17 +33359,17 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -33379,7 +33379,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
@@ -33389,17 +33389,17 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>-23.6</t>
+          <t>15.9</t>
         </is>
       </c>
     </row>
@@ -33409,17 +33409,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Scott Machado</t>
+          <t>Jordan Loyd</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -33429,12 +33429,12 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -33444,7 +33444,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
@@ -33454,17 +33454,17 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>11.5</t>
         </is>
       </c>
     </row>
@@ -33539,12 +33539,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Trevon Duval</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -33554,17 +33554,17 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -33589,12 +33589,12 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -33604,32 +33604,32 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Ike Anigbogu</t>
+          <t>Donatas Motiejunas</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -33639,27 +33639,27 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J512" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>-23.6</t>
         </is>
       </c>
     </row>
@@ -33669,32 +33669,32 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tyler Lydon</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -33704,7 +33704,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
@@ -33714,17 +33714,17 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -34059,22 +34059,22 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Okaro White</t>
+          <t>Troy Caupain</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -34094,7 +34094,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -34104,17 +34104,17 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>-17.6</t>
+          <t>-36.5</t>
         </is>
       </c>
     </row>
@@ -34124,22 +34124,22 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Andre Ingram</t>
+          <t>Okaro White</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -34174,12 +34174,12 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>-20.8</t>
+          <t>-17.6</t>
         </is>
       </c>
     </row>
@@ -34189,17 +34189,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Troy Caupain</t>
+          <t>Andre Ingram</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -34224,7 +34224,7 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -34234,17 +34234,17 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>-36.5</t>
+          <t>-20.8</t>
         </is>
       </c>
     </row>
@@ -34319,22 +34319,22 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tyler Davis</t>
+          <t>Tahjere McCall</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -34369,12 +34369,12 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>-55.3</t>
+          <t>-47.7</t>
         </is>
       </c>
     </row>
@@ -34384,17 +34384,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tahjere McCall</t>
+          <t>Kobi Simmons</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -34434,12 +34434,12 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>-47.7</t>
+          <t>-42.0</t>
         </is>
       </c>
     </row>
@@ -34449,22 +34449,22 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Kobi Simmons</t>
+          <t>Tyler Davis</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -34499,12 +34499,12 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-55.3</t>
         </is>
       </c>
     </row>
